--- a/medicine/Enfance/Gérard_Streiff/Gérard_Streiff.xlsx
+++ b/medicine/Enfance/Gérard_Streiff/Gérard_Streiff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Streiff</t>
+          <t>Gérard_Streiff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Streiff, né le 17 mars 1949 à  Moyeuvre-Grande (Moselle), est un journaliste, essayiste et romancier français. Il a été directeur de collection. Ses romans documentés le classent dans la catégorie des historiens fictionnels.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Streiff</t>
+          <t>Gérard_Streiff</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Streiff suit à Strasbourg les cours de Sciences-Politiques (1967-1970), puis de l’Institut des hautes études européennes (1972). Il reprend ses études sur le tard, passe en 1997 un DEA à l’IEP de Paris et signe une thèse (1997-2001) consacrée au dirigeant communiste Jean Kanapa - dont il a été le collaborateur - qui lui vaut le grade de Docteur de Science Po Paris en histoire. Entretemps, il a travaillé au secteur international du PCF (1973-1981), a été correspondant à Moscou du quotidien L’Humanité (1982-1986), puis rédacteur en chef adjoint des magazines Révolution et Regards. Depuis 1994, Gérard Streiff travaille au département communication du PCF. Il a publié une trentaine d’ouvrages : essais sur l’histoire de l’intelligentsia de gauche dans les années 1950, biographies, romans d’aventures et romans noirs.
 C’est avec une œuvre à destination de la jeunesse, Le Port du désert (1998), ayant trait à la corruption et à la menace écologique au Kazakhstan, qu’il fait ses débuts de romancier. S’ensuivront d’autres romans comme Les Pilleurs de fresques (1999), où des jumeaux parviennent à mettre au jour un trafic de peintures rupestres ; Maudit Détroit (2001), histoire d’une amitié entre un vacancier en Espagne et un « sans papier » ; et Piège à loups (2002) sur une polémique opposant bergers et défenseurs des loups…
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Streiff</t>
+          <t>Gérard_Streiff</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Engagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sujet de l'affaire Cesare Battisti, il demande au gouvernement italien « d'arrêter de courir après ses démons, et pratiquer cette règle universelle qu’est l'amnistie »[1].
-En 2012, il soutient publiquement Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle, appelant à voter pour lui dans un appel signé par cinquante auteurs de polar[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sujet de l'affaire Cesare Battisti, il demande au gouvernement italien « d'arrêter de courir après ses démons, et pratiquer cette règle universelle qu’est l'amnistie ».
+En 2012, il soutient publiquement Jean-Luc Mélenchon, candidat du Front de gauche à l'élection présidentielle, appelant à voter pour lui dans un appel signé par cinquante auteurs de polar.
 Il est cofondateur du prix Artémisia, en soutien de la BD féminine.
-Cofondateur également de CinéArchives[3], soutien au cinéma militant.
+Cofondateur également de CinéArchives, soutien au cinéma militant.
 Il est trésorier du Festival polar de Cognac.
 </t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Streiff</t>
+          <t>Gérard_Streiff</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,33 +599,144 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Le Cas G.B.. Paris : Baleine no 199, coll. "Le Poulpe", 2000.  (ISBN 2-84219-271-0). Rééd. sous le titre Une enquête du Calmar : Le Cagibi. Bois-Guillaume-Bihorel : Les Éd. du Horsain, coll. "Une enquête du Calmar", 07/2014, 129 p.  (ISBN 978-2-36907-019-1)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Cas G.B.. Paris : Baleine no 199, coll. "Le Poulpe", 2000.  (ISBN 2-84219-271-0). Rééd. sous le titre Une enquête du Calmar : Le Cagibi. Bois-Guillaume-Bihorel : Les Éd. du Horsain, coll. "Une enquête du Calmar", 07/2014, 129 p.  (ISBN 978-2-36907-019-1)
 Les Caves de la Goutte d’Or. Paris : Baleine, coll. "Polarchive" no 7, 2001.  (ISBN 2-84219-346-6)
 La Guerre des croûtons. Paris : Baleine, coll. "Série grise" no 17, 2002.  (ISBN 2-84219-396-2). Rééd. Paris : les Points sur les i éditions, coll. "Point de rencontre", 03/2014, 103 p.  (ISBN 978-2-35930-102-1)
 Les Yeux de Lénine. Paris : Le Passage, 2005, 195 p.  (ISBN 2-84742-071-1)
 Le Putsch. Issy-Les-Moulineaux : Éd. du Toucan, coll. "Toucan noir", 2008, 203 p.  (ISBN 978-2-8100-0103-3). Rééd. Bihorel : Krakoen, coll. "Forcément noir", 2011, 232 p.  (ISBN 978-2-916330-79-2)
-La Collection. Marseille : l'Écailler, coll. "L'écailler du Nord" no 115, 2009, 160 p.  (ISBN 978-2-35299-031-4). Rééd. Nancy : Les Refusés, coll. "La Maison d'en face", 2011, 148 p.  (ISBN 979-10-90715-02-8). Rééd. Bois-Guillaume-Bihorel : Les Éd. du Horsain, 12/2015, 170 p.  (ISBN 978-2-36907-039-9). Prix Véronique-Dutriez 2010[4].
+La Collection. Marseille : l'Écailler, coll. "L'écailler du Nord" no 115, 2009, 160 p.  (ISBN 978-2-35299-031-4). Rééd. Nancy : Les Refusés, coll. "La Maison d'en face", 2011, 148 p.  (ISBN 979-10-90715-02-8). Rééd. Bois-Guillaume-Bihorel : Les Éd. du Horsain, 12/2015, 170 p.  (ISBN 978-2-36907-039-9). Prix Véronique-Dutriez 2010.
 Le Trésor de Staline. Bihorel : Krakoen, coll. "Forcément noir", 2010, 185 p.  (ISBN 978-2-916330-53-2)
 Les Marques du fouet. Paris : La Manufacture de livres, 04/2011, 173 p.  (ISBN 978-2-35887-023-8)
 Entourlooping : magouilles et compagnie aérienne, avec Mateo Montesinos. Lille : Nouvelles Éd. Krakoen, coll. "Forcément noir", 02/2013, 223 p.  (ISBN 978-2-36794-016-8)
 Retour de flamme à l'américaine. Clichy : Éd. du Jasmin, coll. "Jasmin noir" n° 1, 04/2015, 111 p.  (ISBN 978-2-35284-300-9). Rééd. sous le titre Napalm d'or (2020)
-Grognards.net : meurtre sur la ZAD. Villejuif : Helvétius, coll. "Helvétius Polar", 09/2017, 180 p.  (ISBN 979-10-93736-16-7). Rééd. sous le titre Meurtre sur la Zad (2019)
-Série Les enquêtes de Chloé Bourgeade
-Le Demi-frère. Rives-en-Seine : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 1, 03/2019, 138 p.  (ISBN 979-10-96373-20-8)
+Grognards.net : meurtre sur la ZAD. Villejuif : Helvétius, coll. "Helvétius Polar", 09/2017, 180 p.  (ISBN 979-10-93736-16-7). Rééd. sous le titre Meurtre sur la Zad (2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gérard_Streiff</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Streiff</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes de Chloé Bourgeade</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Demi-frère. Rives-en-Seine : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 1, 03/2019, 138 p.  (ISBN 979-10-96373-20-8)
 Meurtre sur la Zad. Rives-en-Seine : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 2, 09/2019, 132 p.  (ISBN 979-10-96373-25-3) (rééd. revue de Grognards.net : meurtre sur la ZAD, Helvétius, 2017)
 Napalm d'or. Rives-en-Seine : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 3, 03/2020, 128 p.  (ISBN 979-10-96373-31-4) (rééd. revue de Retour de flamme à l'américaine, Éd. du Jasmin, 2015)
 September : crime d'États. Rives-en-Seine : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 4, 03/2020, 128 p.  (ISBN 979-10-96373-30-7)
 Octobre à Paris. Rives-en-Seine : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 5, 09/2021, 129 p.  (ISBN 979-10-96373-39-0)
 Nitchevo ! Rives-en-Seine : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 6, 10/2022, 130 p.  (ISBN 979-10-96373-49-9)
-Le Sosie. La Villedieu : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 7, 08/2023, 119 p.  (ISBN 979-10-96373-54-3)
-Direction d'anthologies
-Franco La Muerte. Tarbes : Arcane 17, coll. "Polar rouge", 08/2015.  (ISBN 978-2-918721-43-7)
+Le Sosie. La Villedieu : La Déviation, coll. "Les enquêtes de Chloé Bourgeade" n° 7, 08/2023, 119 p.  (ISBN 979-10-96373-54-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gérard_Streiff</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Streiff</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Direction d'anthologies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Franco La Muerte. Tarbes : Arcane 17, coll. "Polar rouge", 08/2015.  (ISBN 978-2-918721-43-7)
 Mortelles primaires. Tarbes : Arcane 17, coll. "Polar rouge", 11/2016.  (ISBN 978-2-918721-56-7)
 1917 Octobre rouge : nouvelles noires. Tarbes : Arcane 17, coll. "Polar rouge", 10/2017.  (ISBN 978-2-918721-63-5)
-Sous les pavés la rage. Tarbes : Arcanes 17, coll. "Polar rouge", 05/2018.  (ISBN 978-2-918721-71-0)
-Documents
-1992, un marché de dupes ? : entretiens contradictoires, avec Françoise Colpin. Paris : Messidor-Éd. sociales, 1989, 180 p.  (ISBN 2-209-06163-6)
+Sous les pavés la rage. Tarbes : Arcanes 17, coll. "Polar rouge", 05/2018.  (ISBN 978-2-918721-71-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gérard_Streiff</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Streiff</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1992, un marché de dupes ? : entretiens contradictoires, avec Françoise Colpin. Paris : Messidor-Éd. sociales, 1989, 180 p.  (ISBN 2-209-06163-6)
 EX-URSS, un nouveau tiers-monde : essai . Paris : Messidor-Éditions sociales, 1992, 186 p.  (ISBN 2-20906639-5)
 Jean Kanapa 1921-1978. Une singulière histoire du PCF. Paris : L'Harmattan, 2001, 2 vol. (571, 587 p.)  (ISBN 2-7475-1814-0) (vol. 1)  (ISBN 2-7475-1815-9) (vol. 2)
 Guy Môquet : Chateaubriant, le 22 octobre 1941 : docu-fiction. Pantin : Le Temps des cerises, 2007, 140 p. (La Mauvaise graine).  (ISBN 978-2-84109-695-4)
@@ -625,9 +752,43 @@
 Le Puzzle Kanapa. Rives-en-Seine : La Déviation, 2021, 275 p.  (ISBN 979-1096373383)
 Marivo, Marie-Claude Vaillant-Couturier, une vie de résistance, préface de Charles Fiterman, Ampelos Editions, 2021, 142 p.  (ISBN 978-2-35618-192-3)
 La Maison des communistes. Paris : Hermann, coll. "Architecture contemporaine", 07/2023, 150 p.  (ISBN 979-10-370-1866-3)
-Missak et Mélinée Manouchian. Un couple en Résistance, Paris, Éditions de l'Archipel, 2024 (BNF 47401589).
-Nouvelles
-Projet de discours pour le 22 mars 2000, dans 22 mars 2000, c’est un bon jour pour Gabriel. Paris : Baleine, coll. "Le Poulpe" no 186, 2000.
+Missak et Mélinée Manouchian. Un couple en Résistance, Paris, Éditions de l'Archipel, 2024 (BNF 47401589).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gérard_Streiff</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Streiff</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projet de discours pour le 22 mars 2000, dans 22 mars 2000, c’est un bon jour pour Gabriel. Paris : Baleine, coll. "Le Poulpe" no 186, 2000.
 La Débande à Bonnot, dans Écrans noirs 25 nouvelles « Polar, cinéma et stars », vol. 2. Cognac : Le Marque-Page, 12/2002.  (ISBN 2-9517388-2-X). Vendu aussi en coffret avec le vol. 1  (ISBN 2-9517388-3-8)
 Janus, revue CCAS Infos no 242, janvier 2004.
 Le Scaphandrier, L’Humanité no 18655, 5 août 2004. Reprise dans 36 nouvelles noires pour l’Humanité / sous la direction de Roger Martin. Paris : Hors Commerce, coll. "Hors Noir", 09/2004.  (ISBN 2-915286-24-8)
@@ -649,9 +810,43 @@
 Mambo de la pinta, dans Hommage à Art Pepper : No limit / sous la direction de Dominique Delahaye. Rouen : Petit à petit, 05/2019, p. 69-72, ill. de Iris Pouy.  (ISBN 979-1-095670-94-0)
 Vingt-quatre juillet. Penmarc'h : Le Goéland masqué, coll. "La petite collection du Goéland masqué", 07/2019, 19 p. Nouvelle écrite dans le cadre d'une résidence au Sémaphore d'Ouessant en mai 2018.
 Paella, dans Catalans : nouvelles noires en solidarité avec les prisonniers politiques / avant-propos Diego Arrabal. Tarbes : Arcane 17, coll. "Polar rouge", 09/2019.  (ISBN 978-2-918721-79-6)
-Nuit d'enfer, revue Les Refusés (Nancy) n° 21, 2019.
-Romans pour la jeunesse
-Le Chalutier du désert. Paris : Hachette, coll. "Bibliothèque verte. Planète verte" no 527, 1998, 124 p.  (ISBN 2-01-209993-9). Rééd. sous le titre Le Port du désert / ill. Arnaud Floc'h. Paris : Magnard jeunesse, coll. "Les Policiers" no 12, 05/2003, 120 p.  (ISBN 2-210-98442-4)
+Nuit d'enfer, revue Les Refusés (Nancy) n° 21, 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gérard_Streiff</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Streiff</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Chalutier du désert. Paris : Hachette, coll. "Bibliothèque verte. Planète verte" no 527, 1998, 124 p.  (ISBN 2-01-209993-9). Rééd. sous le titre Le Port du désert / ill. Arnaud Floc'h. Paris : Magnard jeunesse, coll. "Les Policiers" no 12, 05/2003, 120 p.  (ISBN 2-210-98442-4)
 Les Pilleurs de fresques / ill. Chantal Montellier. Paris : Magnard jeunesse, coll. "Les Policiers", 1999, 122 p.   (ISBN 2-210-97797-5). Rééd. Maxi-livres, coll. "Maxi poche jeunesse", 2004, 126 p.  (ISBN 2-7434-3416-3).
 Train de nuit blanche / ill. Chantal Montellier. Paris : Magnard jeunesse, coll. "Les p’tits policiers", 2000, 46 p.  (ISBN 2-210-98040-2)
 Maudit Détroit / ill. Isabelle Nègre. Paris : Magnard jeunesse, coll. "Les p’tits policiers", 2001, 46 p.  (ISBN 2-210-98055-0). Rééd. sous le titre Les Malabars de Gibraltar, dans Tête de serpent. Sartrouville : Atelier de presse, coll. "Le petit atelier noir" no 3, 2008, 150 p.  (ISBN 978-2-35310-075-0)
